--- a/Data/06_Kultur og kulturarv/Bibliotek/Sommerles statistikk 2025-2023.xlsx
+++ b/Data/06_Kultur og kulturarv/Bibliotek/Sommerles statistikk 2025-2023.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/vibeke_stokka_telemarkfylke_no/Documents/1. VIBEKESTO/Sommerles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/06_Kultur og kulturarv/Bibliotek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A79BCCF-86F4-4FD8-BB0D-EEF7B4AAECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9A79BCCF-86F4-4FD8-BB0D-EEF7B4AAECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D37F7C5-8BF6-43E9-B51A-BF0B94F8D95F}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="1368" windowWidth="20520" windowHeight="8880" xr2:uid="{AA0A83C2-49BC-40C6-8195-0F8C9AA98E2A}"/>
+    <workbookView xWindow="-4050" yWindow="255" windowWidth="37290" windowHeight="20985" xr2:uid="{AA0A83C2-49BC-40C6-8195-0F8C9AA98E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
     <sheet name="2024" sheetId="2" r:id="rId2"/>
     <sheet name="2023" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -475,16 +475,16 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -501,6 +501,7 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -836,25 +837,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A012AF-0250-4F0E-917C-2D9C8DEC7C94}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -880,7 +881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +913,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -944,7 +945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -976,7 +977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,8 +1200,12 @@
       <c r="L12" s="7">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q12" s="31">
+        <f>AVERAGE(K11,K13)</f>
+        <v>966.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1295,8 +1300,12 @@
       <c r="L15" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q15" s="31">
+        <f>I11+I13</f>
+        <v>696128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -1560,15 +1569,22 @@
       <c r="K24" s="18"/>
       <c r="L24" s="20"/>
     </row>
-    <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="C25" s="31">
+        <f>SUM(C5:C6,C9:C24)</f>
+        <v>15283</v>
+      </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <f>AVERAGE(K5:K6,K9:K23)</f>
+        <v>1406.1764705882354</v>
+      </c>
       <c r="J25" s="19"/>
       <c r="K25" s="18"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -1576,7 +1592,7 @@
       <c r="K26" s="18"/>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -1584,7 +1600,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -1592,7 +1608,7 @@
       <c r="K28" s="18"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
@@ -1600,7 +1616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -1627,15 +1643,15 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1757,7 +1773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1805,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1949,7 +1965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1981,7 +1997,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2013,7 +2029,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2077,7 +2093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2109,7 +2125,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2141,7 +2157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2173,7 +2189,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2333,7 +2349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>67</v>
       </c>
@@ -2341,7 +2357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2368,17 +2384,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2533,7 +2549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -2565,7 +2581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -2597,7 +2613,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2677,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2725,7 +2741,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2789,7 +2805,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2821,7 +2837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2853,7 +2869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2917,7 +2933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2949,7 +2965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2981,7 +2997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -3045,7 +3061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3077,42 +3093,42 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20"/>
     </row>
-    <row r="29" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>42</v>
       </c>
